--- a/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 15,52</t>
+          <t>9,24; 15,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 16,92</t>
+          <t>9,93; 17,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 17,54</t>
+          <t>10,57; 17,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 16,61</t>
+          <t>10,93; 16,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,6</t>
+          <t>13,89; 23,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 19,91</t>
+          <t>11,4; 19,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 19,85</t>
+          <t>11,56; 19,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 22,6</t>
+          <t>16,54; 22,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,2</t>
+          <t>11,97; 16,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 16,97</t>
+          <t>11,48; 16,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,48</t>
+          <t>11,98; 17,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,59</t>
+          <t>14,47; 18,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,54</t>
+          <t>6,17; 12,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 19,29</t>
+          <t>11,73; 19,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 15,29</t>
+          <t>8,44; 15,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 21,41</t>
+          <t>14,49; 21,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 16,41</t>
+          <t>9,6; 16,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,48</t>
+          <t>10,67; 18,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 18,2</t>
+          <t>10,56; 18,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 24,86</t>
+          <t>18,11; 24,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,28</t>
+          <t>8,78; 13,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,96</t>
+          <t>12,26; 17,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,46</t>
+          <t>10,18; 15,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 21,94</t>
+          <t>17,05; 21,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 19,34</t>
+          <t>12,89; 19,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 25,74</t>
+          <t>18,51; 25,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 22,22</t>
+          <t>15,47; 22,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 82,09</t>
+          <t>24,42; 83,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 35,23</t>
+          <t>20,58; 34,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 35,29</t>
+          <t>23,68; 36,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 37,94</t>
+          <t>22,77; 38,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,09; 45,84</t>
+          <t>33,81; 45,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 21,63</t>
+          <t>15,82; 21,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 27,18</t>
+          <t>21,32; 27,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,67; 25,11</t>
+          <t>18,53; 24,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,76; 81,73</t>
+          <t>28,3; 78,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 23,41</t>
+          <t>18,64; 23,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 23,38</t>
+          <t>18,56; 23,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,71</t>
+          <t>17,05; 21,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,92; 29,56</t>
+          <t>23,65; 29,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 25,99</t>
+          <t>19,8; 25,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 23,81</t>
+          <t>17,82; 23,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 22,36</t>
+          <t>16,81; 22,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 27,37</t>
+          <t>10,98; 27,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 23,6</t>
+          <t>20,01; 23,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 22,9</t>
+          <t>18,62; 22,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 21,14</t>
+          <t>17,59; 21,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 27,28</t>
+          <t>16,84; 27,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,43</t>
+          <t>15,81; 24,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 22,57</t>
+          <t>15,91; 22,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 26,14</t>
+          <t>19,18; 25,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,02; 32,89</t>
+          <t>24,72; 33,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,95; 32,79</t>
+          <t>24,53; 32,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,59; 41,87</t>
+          <t>34,06; 41,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,17</t>
+          <t>29,36; 36,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,2; 40,17</t>
+          <t>25,26; 39,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,16; 28,1</t>
+          <t>21,82; 27,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 33,08</t>
+          <t>27,89; 33,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,43; 30,46</t>
+          <t>25,45; 30,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,81; 36,09</t>
+          <t>27,1; 36,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,23</t>
+          <t>2,0; 6,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,69</t>
+          <t>2,29; 7,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,98</t>
+          <t>0,94; 5,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,89</t>
+          <t>1,96; 6,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,23; 38,4</t>
+          <t>33,11; 38,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,13; 40,32</t>
+          <t>34,17; 40,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,11; 36,44</t>
+          <t>30,2; 36,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,32; 39,55</t>
+          <t>33,1; 39,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,2; 31,69</t>
+          <t>27,21; 32,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,09; 33,41</t>
+          <t>28,34; 33,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,25; 29,61</t>
+          <t>24,49; 29,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 31,03</t>
+          <t>25,88; 31,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,6; 17,13</t>
+          <t>14,65; 17,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,57; 19,35</t>
+          <t>16,53; 19,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,57; 18,07</t>
+          <t>15,43; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,1; 43,13</t>
+          <t>21,08; 44,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,63; 28,67</t>
+          <t>25,75; 28,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,49; 30,56</t>
+          <t>27,56; 30,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,53; 27,61</t>
+          <t>24,46; 27,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,43; 30,78</t>
+          <t>23,26; 30,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,55; 22,59</t>
+          <t>20,5; 22,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,55; 24,72</t>
+          <t>22,5; 24,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>20,55; 22,57</t>
+          <t>20,45; 22,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,48; 36,09</t>
+          <t>24,49; 36,65</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57251</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58969</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>68804</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55613</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48218</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53868</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>88045</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112528</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>105469</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>112837</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>156849</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43793; 73497</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43435; 75957</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45338; 76508</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54973; 83633</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42592; 71409</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35860; 62240</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40113; 69005</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73791; 101371</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>93390; 130921</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86279; 125420</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>92995; 133519</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>137378; 177354</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33198</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64210</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42515</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79810</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47175</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48086</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52715</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82101</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80373</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>95230</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22627; 46376</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49107; 80782</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31848; 57905</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>65414; 95150</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35717; 60794</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36077; 63880</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39302; 70594</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>69182; 94642</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64859; 100554</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92762; 132078</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76322; 115984</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>142146; 182339</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86968</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>137607</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97824</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>350376</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45746</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75887</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49918</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66543</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>132714</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>213494</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>147742</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>416919</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>69923; 104733</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>116503; 161094</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80718; 114934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>162492; 555269</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34524; 58174</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61604; 93719</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37821; 63323</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56092; 76034</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>112372; 155065</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>189615; 242239</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>127460; 171961</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>235250; 656163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>259210</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>243115</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>221718</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>273459</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>163673</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>156601</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160450</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>205659</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>422883</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>399717</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>382168</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>479118</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>230812; 289129</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>215078; 274487</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>196068; 250030</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>243515; 303667</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>141458; 185013</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>136593; 179429</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>138846; 184934</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107187; 267422</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>390703; 458949</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>358511; 436960</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>347425; 416342</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>337664; 545996</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69144</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98109</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>138481</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>134474</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>289879</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>240101</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>294432</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>228877</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>387988</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>378582</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>428906</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55430; 85002</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81254; 115510</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>119057; 160475</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>116302; 158768</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>139505; 182920</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>259367; 319483</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>216765; 268305</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>211300; 333811</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>200616; 254524</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>354750; 422784</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>345809; 416825</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>354225; 473487</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11344</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12127</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8861</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>446060</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>413221</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>363023</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>272576</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>457404</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>425348</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>369865</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>281436</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5966; 19093</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6118; 20454</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2694; 14823</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4703; 16741</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>413453; 480828</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>379058; 447548</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>326770; 395265</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>249080; 294820</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>420866; 495114</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>389963; 464823</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>335334; 403507</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>256973; 310305</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>612418</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>566350</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>915783</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>917999</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1031893</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>920074</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1009355</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1434779</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1644311</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1486424</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1925139</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>479173; 561106</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>565621; 661702</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>522344; 613931</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>708300; 1498972</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>869997; 969375</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>978280; 1083376</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>863741; 973278</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>827729; 1098967</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1363090; 1505973</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1569027; 1717149</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1414428; 1551368</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1694623; 2535770</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
